--- a/biology/Microbiologie/Comamonadaceae/Comamonadaceae.xlsx
+++ b/biology/Microbiologie/Comamonadaceae/Comamonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Comamonadaceae sont une famille de protéobactéries à coloration Gram négative de l'ordre des Burkholderiales, qui comprend une trentaine de genres.
 Certains représentants de la famille des Comamonadaceae ont été isolés du sol, de la boue, de l'eau et d'environnements industriels ou terrils miniers. Certaines espèces sont des bactéries phytopathogènes (Acidovorax spp., Xylophilus ampelinus). Certains isolats d'Acidovorax spp. et de Comamonas spp. sont issus de prélèvements cliniques, mais sont considérées comme non pathogènes.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 août 2014) :
 genre Acidovorax
 genre Alicycliphilus
 genre Brachymonas
@@ -537,7 +551,7 @@
 genre Simplicispira
 genre Variovorax
 genre Xenophilus
-Selon World Register of Marine Species                               (15 août 2014)[2] :
+Selon World Register of Marine Species                               (15 août 2014) :
 genre Acidovorax Willems, Falsen, Pot, Jantzen, Hoste, Vandamme, Gillis, Kersters &amp; De Ley, 1990
 genre Alicycliphilus Mechichi, Stackebrandt &amp; Fuchs
 genre Brachymonas Hiraishi, Shin &amp; Sugiyama, 1995
@@ -582,9 +596,11 @@
           <t>Liste des genres, espèces, sous-espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (15 août 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (15 août 2014) :
 genre Acidovorax
 Acidovorax aerodenitrificans
 Acidovorax anthurii
